--- a/biology/Zoologie/Coucou_épervier/Coucou_épervier.xlsx
+++ b/biology/Zoologie/Coucou_épervier/Coucou_épervier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A9pervier</t>
+          <t>Coucou_épervier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hierococcyx sparverioides
 Le Coucou épervier (Hierococcyx sparverioides) est une espèce de coucou, oiseau de la famille des Cuculidae. C'est une espèce monotypique (non subdivisée en sous-espèces).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A9pervier</t>
+          <t>Coucou_épervier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur Taïwan, la Chine, le Pakistan, le Népal, le Bhoutan, l'Inde, le Bangladesh, la Birmanie, le Laos, le Viêt Nam, le Cambodge, la Thaïlande, la Malaisie, Singapour, les Philippines et l'Indonésie.
 </t>
